--- a/data/res_test.xlsx
+++ b/data/res_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="res_test.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="9">
   <si>
     <t>method</t>
   </si>
@@ -33,7 +33,13 @@
     <t>random</t>
   </si>
   <si>
+    <t>GMMx1000</t>
+  </si>
+  <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>Std</t>
   </si>
   <si>
     <t>Max</t>
@@ -41,21 +47,24 @@
   <si>
     <t>Min</t>
   </si>
-  <si>
-    <t>GMMx1000</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -91,41 +100,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,7 +444,7 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G4"/>
+      <selection activeCell="E1" sqref="E1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -473,13 +459,13 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -493,15 +479,15 @@
       <c r="C2">
         <v>0.22290611267089799</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <f>MEDIAN(B2:B1001)</f>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <f>MEDIAN(B$2:B$1002)</f>
         <v>6.5</v>
       </c>
-      <c r="G2">
-        <f>MEDIAN(C2:C1001)</f>
+      <c r="G2" s="1">
+        <f>MEDIAN(C$2:C$1002)</f>
         <v>0.21468651294708252</v>
       </c>
     </row>
@@ -516,15 +502,15 @@
         <v>0.21089911460876401</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <f>MAX(B2:B1001)</f>
-        <v>26.5</v>
-      </c>
-      <c r="G3">
-        <f>MAX(C2:C1001)</f>
-        <v>0.37877702713012601</v>
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <f>STDEV(B$2:B$1002)</f>
+        <v>2.9513546880194661</v>
+      </c>
+      <c r="G3" s="1">
+        <f>STDEV(C$2:C$1002)</f>
+        <v>2.0236305923062619E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -538,15 +524,15 @@
         <v>0.21991491317749001</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <f>MIN(B2:B1002)</f>
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <f>MIN(C2:C1002)</f>
-        <v>0.180793046951293</v>
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <f>MAX(B$2:B$1002)</f>
+        <v>26.5</v>
+      </c>
+      <c r="G4" s="1">
+        <f>MAX(C$2:C$1002)</f>
+        <v>0.37877702713012601</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -558,6 +544,17 @@
       </c>
       <c r="C5">
         <v>0.21065402030944799</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <f>MIN(B$2:B$1002)</f>
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <f>MIN(C$2:C$1002)</f>
+        <v>0.180793046951293</v>
       </c>
     </row>
     <row r="6" spans="1:7">
